--- a/Statistics/100m Bryst_statistics.xlsx
+++ b/Statistics/100m Bryst_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3801,20 +3801,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Edvin Aurstad Bergum</t>
+          <t>Bjarne Forfot</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1.28,70</t>
+          <t>1.28,39</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>17.01.2025</t>
+          <t>19.01.2018</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3836,25 +3836,25 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Hasith Ransiri Attanapola</t>
+          <t>Edvin Aurstad Bergum</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1.28,95</t>
+          <t>1.28,70</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>16.02.2019</t>
+          <t>17.01.2025</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3871,25 +3871,25 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Johan Mostervik</t>
+          <t>Hasith Ransiri Attanapola</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1.29,08</t>
+          <t>1.28,95</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>28.10.2017</t>
+          <t>16.02.2019</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3906,25 +3906,25 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Aksel Viken Refseth</t>
+          <t>Johan Mostervik</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1.29,23</t>
+          <t>1.29,08</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>28.10.2017</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3941,12 +3941,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Iris Elise Moen</t>
+          <t>Aksel Viken Refseth</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1.40,66</t>
+          <t>1.29,23</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -3954,12 +3954,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3976,25 +3976,25 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Vegard Maaø</t>
+          <t>Iris Elise Moen</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1.29,50</t>
+          <t>1.40,66</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>23.05.2009</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4011,25 +4011,25 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Liv Løfaldli</t>
+          <t>Vegard Maaø</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1.41,26</t>
+          <t>1.29,50</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>16.02.2025</t>
+          <t>23.05.2009</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4046,25 +4046,25 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sondre Aakerholm Adsen</t>
+          <t>Liv Løfaldli</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1.29,86</t>
+          <t>1.41,26</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>02.12.2023</t>
+          <t>16.02.2025</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4081,25 +4081,25 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Stian Nilsen</t>
+          <t>Sondre Aakerholm Adsen</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1.30,25</t>
+          <t>1.29,86</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>12.02.2010</t>
+          <t>02.12.2023</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4116,12 +4116,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Njål Høie</t>
+          <t>Stian Nilsen</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1.30,34</t>
+          <t>1.30,25</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -4129,12 +4129,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>20.06.2015</t>
+          <t>12.02.2010</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4151,20 +4151,20 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Lionel Nicolas Weissbrodt</t>
+          <t>Njål Høie</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1.30,45</t>
+          <t>1.30,34</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>02.03.2024</t>
+          <t>20.06.2015</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4186,25 +4186,25 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Elias Hauge Lien</t>
+          <t>Lionel Nicolas Weissbrodt</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1.30,49</t>
+          <t>1.30,45</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>03.12.2022</t>
+          <t>02.03.2024</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4221,12 +4221,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Fredrik Wilhelmsen</t>
+          <t>Elias Hauge Lien</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1.30,60</t>
+          <t>1.30,49</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>01.03.2014</t>
+          <t>03.12.2022</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4256,12 +4256,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Mattias Isaksen</t>
+          <t>Fredrik Wilhelmsen</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1.30,61</t>
+          <t>1.30,60</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>01.03.2014</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4291,20 +4291,20 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Kristian Myhr Høgstøl</t>
+          <t>Mattias Isaksen</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1.30,68</t>
+          <t>1.30,61</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4326,20 +4326,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Andreas Aglen Alsos</t>
+          <t>Kristian Myhr Høgstøl</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1.30,76</t>
+          <t>1.30,68</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>18.03.2023</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4361,12 +4361,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Theodor Solheim</t>
+          <t>Andreas Aglen Alsos</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1.30,79</t>
+          <t>1.30,76</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>19.01.2020</t>
+          <t>18.03.2023</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4396,25 +4396,25 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Setareh Kulsum Sigrid Feyzi</t>
+          <t>Theodor Solheim</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1.42,79</t>
+          <t>1.30,79</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>29.09.2018</t>
+          <t>19.01.2020</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4431,25 +4431,25 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Kaan Baltaci</t>
+          <t>Setareh Kulsum Sigrid Feyzi</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1.31,87</t>
+          <t>1.42,79</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>13.01.2023</t>
+          <t>29.09.2018</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4466,20 +4466,20 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Ailin Østerås</t>
+          <t>Kaan Baltaci</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1.44,15</t>
+          <t>1.31,87</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>18.06.2011</t>
+          <t>13.01.2023</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4501,25 +4501,25 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Christian Dahle-Øfsti</t>
+          <t>Ailin Østerås</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1.32,65</t>
+          <t>1.44,15</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>01.06.2013</t>
+          <t>18.06.2011</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4536,25 +4536,25 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Edvard Hamnes Ulriksen</t>
+          <t>Christian Dahle-Øfsti</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1.32,95</t>
+          <t>1.32,65</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>16.02.2025</t>
+          <t>01.06.2013</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4571,25 +4571,25 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sigurd Øie Seland</t>
+          <t>Edvard Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1.33,36</t>
+          <t>1.32,95</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>17.01.2025</t>
+          <t>16.02.2025</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4606,7 +4606,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Finn Øivind Fevang</t>
+          <t>Sigurd Øie Seland</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4619,12 +4619,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>12.03.2005</t>
+          <t>17.01.2025</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4641,25 +4641,25 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Eirik Hamnes Ulriksen</t>
+          <t>Finn Øivind Fevang</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1.33,78</t>
+          <t>1.33,36</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>12.03.2005</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4676,12 +4676,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Storm Olander Øvergård</t>
+          <t>Eirik Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1.33,80</t>
+          <t>1.33,78</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -4689,7 +4689,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4711,12 +4711,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Thomas Stur Ekrem</t>
+          <t>Storm Olander Øvergård</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1.33,90</t>
+          <t>1.33,80</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>01.10.2023</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4746,20 +4746,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Isabel Ødegård Pedersen</t>
+          <t>Thomas Stur Ekrem</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1.46,96</t>
+          <t>1.33,90</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>17.01.2025</t>
+          <t>01.10.2023</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4781,20 +4781,20 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Leander Gisvold Restad</t>
+          <t>Isabel Ødegård Pedersen</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1.34,97</t>
+          <t>1.46,96</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>19.01.2020</t>
+          <t>17.01.2025</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4816,20 +4816,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Even Greiff</t>
+          <t>Leander Gisvold Restad</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1.35,07</t>
+          <t>1.34,97</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>26.01.2024</t>
+          <t>19.01.2020</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4851,12 +4851,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Lin Carola Magdalene Nygren</t>
+          <t>Even Greiff</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1.47,31</t>
+          <t>1.35,07</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>26.01.2024</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4886,25 +4886,25 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Victor Voormolen Gutierrez</t>
+          <t>Lin Carola Magdalene Nygren</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1.36,19</t>
+          <t>1.47,31</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>29.09.2019</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4921,25 +4921,25 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Edvin Grenne Spangelo</t>
+          <t>Victor Voormolen Gutierrez</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1.36,39</t>
+          <t>1.36,19</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>29.09.2019</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4956,25 +4956,25 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Johannes Tryggestad</t>
+          <t>Edvin Grenne Spangelo</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1.36,75</t>
+          <t>1.36,39</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>23.06.2019</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4991,25 +4991,25 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Vegard S. Wigum</t>
+          <t>Johannes Tryggestad</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1.37,64</t>
+          <t>1.36,75</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>05.04.2014</t>
+          <t>23.06.2019</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5026,25 +5026,25 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Eilert Juul Wolfgang</t>
+          <t>Vegard S. Wigum</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1.38,03</t>
+          <t>1.37,64</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>06.10.2013</t>
+          <t>05.04.2014</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5061,20 +5061,20 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Fredrik Holberg</t>
+          <t>Eilert Juul Wolfgang</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1.38,19</t>
+          <t>1.38,03</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>06.10.2013</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5096,20 +5096,20 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Emily Liv Liem</t>
+          <t>Fredrik Holberg</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1.50,87</t>
+          <t>1.38,19</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>20.01.2019</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5131,20 +5131,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Anniken Skjøstad</t>
+          <t>Emily Liv Liem</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1.51,31</t>
+          <t>1.50,87</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>16.11.2019</t>
+          <t>20.01.2019</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5166,25 +5166,25 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Daniel Stanislaw Czuba</t>
+          <t>Anniken Skjøstad</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1.38,87</t>
+          <t>1.51,31</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>20.10.2024</t>
+          <t>16.11.2019</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5201,25 +5201,25 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Thomas Paulsen</t>
+          <t>Daniel Stanislaw Czuba</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1.39,68</t>
+          <t>1.38,87</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>08.02.2014</t>
+          <t>20.10.2024</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5236,12 +5236,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Liem Emily Liv</t>
+          <t>Thomas Paulsen</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1.52,46</t>
+          <t>1.39,68</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -5249,12 +5249,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>15.09.2018</t>
+          <t>08.02.2014</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5271,20 +5271,20 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>William Wale</t>
+          <t>Liem Emily Liv</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1.39,94</t>
+          <t>1.52,46</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>14.09.2014</t>
+          <t>15.09.2018</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5306,20 +5306,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Mateo Joseph Barriet</t>
+          <t>William Wale</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1.40,17</t>
+          <t>1.39,94</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>19.09.2020</t>
+          <t>14.09.2014</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5341,20 +5341,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Marcus Thalberg Fagerheim</t>
+          <t>Mateo Joseph Barriet</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1.40,75</t>
+          <t>1.40,17</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>03.03.2012</t>
+          <t>19.09.2020</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5376,20 +5376,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Tor Martin Dahl</t>
+          <t>Marcus Thalberg Fagerheim</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1.41,17</t>
+          <t>1.40,75</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>18.09.2005</t>
+          <t>03.03.2012</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5411,25 +5411,25 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Odd Hugo Hellem</t>
+          <t>Tor Martin Dahl</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1.41,41</t>
+          <t>1.41,17</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>12.11.2005</t>
+          <t>18.09.2005</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5446,12 +5446,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Conrad Sippala Hassel</t>
+          <t>Odd Hugo Hellem</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1.41,55</t>
+          <t>1.41,41</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -5459,12 +5459,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>19.01.2020</t>
+          <t>12.11.2005</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5481,25 +5481,25 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Håkon Johansen</t>
+          <t>Conrad Sippala Hassel</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1.41,68</t>
+          <t>1.41,55</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>17.04.2005</t>
+          <t>19.01.2020</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5516,20 +5516,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Eirik Ingeberg Garshol</t>
+          <t>Håkon Johansen</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1.41,84</t>
+          <t>1.41,68</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>17.04.2005</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5551,25 +5551,25 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Gunhild Furuholt Valle</t>
+          <t>Eirik Ingeberg Garshol</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1.55,50</t>
+          <t>1.41,84</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5586,20 +5586,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Olav Høyland Hofstad</t>
+          <t>Gunhild Furuholt Valle</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1.44,03</t>
+          <t>1.55,50</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>17.01.2025</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5621,20 +5621,20 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Tony Christopher Moflag</t>
+          <t>Olav Høyland Hofstad</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1.44,66</t>
+          <t>1.44,03</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>09.10.2005</t>
+          <t>17.01.2025</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5656,25 +5656,25 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Brage Gylseth Dahl</t>
+          <t>Tony Christopher Moflag</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1.44,81</t>
+          <t>1.44,66</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>09.10.2005</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5691,25 +5691,25 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Iselin Græsli Skaret</t>
+          <t>Brage Gylseth Dahl</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1.59,04</t>
+          <t>1.44,81</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>09.11.2019</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5726,25 +5726,25 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Robin von Bargen</t>
+          <t>Iselin Græsli Skaret</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1.45,94</t>
+          <t>1.59,04</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>30.10.2010</t>
+          <t>09.11.2019</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5761,20 +5761,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Vår Kristine Sollien Skar</t>
+          <t>Robin von Bargen</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1.59,69</t>
+          <t>1.45,94</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>20.06.2015</t>
+          <t>30.10.2010</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5796,25 +5796,25 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Tymofii Dzisiak</t>
+          <t>Vår Kristine Sollien Skar</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1.46,32</t>
+          <t>1.59,69</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>20.06.2015</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5831,25 +5831,25 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Jørgen Norvik Skeide</t>
+          <t>Tymofii Dzisiak</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1.47,20</t>
+          <t>1.46,32</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>03.12.2005</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5866,12 +5866,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Peder Lund Juul</t>
+          <t>Jørgen Norvik Skeide</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1.47,18</t>
+          <t>1.47,20</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -5879,12 +5879,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>03.12.2005</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5901,25 +5901,25 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Nicol Bauer Asbøll</t>
+          <t>Peder Lund Juul</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2.01,08</t>
+          <t>1.47,18</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>09.11.2019</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5936,12 +5936,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Cornelius Wik</t>
+          <t>Nicol Bauer Asbøll</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1.47,39</t>
+          <t>2.01,08</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -5949,12 +5949,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>09.11.2019</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5971,12 +5971,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Lyder Ringsvold Hogstad</t>
+          <t>Cornelius Wik</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1.47,29</t>
+          <t>1.47,39</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>10.02.2018</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6006,25 +6006,25 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Magnus Bakkejord</t>
+          <t>Lyder Ringsvold Hogstad</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1.47,66</t>
+          <t>1.47,29</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>03.12.2011</t>
+          <t>10.02.2018</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6041,25 +6041,25 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Rasmus Larsen Natvig</t>
+          <t>Magnus Bakkejord</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1.47,96</t>
+          <t>1.47,66</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>03.12.2011</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6076,12 +6076,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Ingvar Høgås Wik</t>
+          <t>Rasmus Larsen Natvig</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1.47,93</t>
+          <t>1.47,96</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -6089,12 +6089,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>26.09.2015</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6111,25 +6111,25 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Filip Dalsaune</t>
+          <t>Ingvar Høgås Wik</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1.48,18</t>
+          <t>1.47,93</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>26.09.2015</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6146,20 +6146,20 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>William Johannes Kirkelund Kristiansen</t>
+          <t>Filip Dalsaune</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1.48,53</t>
+          <t>1.48,18</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>19.11.2022</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6181,20 +6181,20 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Einar Risholt Moen</t>
+          <t>William Johannes Kirkelund Kristiansen</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1.48,84</t>
+          <t>1.48,53</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>15.06.2013</t>
+          <t>19.11.2022</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6216,12 +6216,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Bernard Smuk</t>
+          <t>Einar Risholt Moen</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1.48,69</t>
+          <t>1.48,84</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -6229,7 +6229,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>15.06.2013</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6251,20 +6251,20 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Ingjerd Jepsen Vegge</t>
+          <t>Bernard Smuk</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2.03,37</t>
+          <t>1.48,69</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>12.02.2011</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6286,20 +6286,20 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sondre Thorgaard</t>
+          <t>Ingjerd Jepsen Vegge</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1.49,68</t>
+          <t>2.03,37</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>03.10.2021</t>
+          <t>12.02.2011</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -6321,20 +6321,20 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sigurd Kristoffersen Torvik</t>
+          <t>Sondre Thorgaard</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1.50,81</t>
+          <t>1.49,68</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>03.10.2021</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -6356,25 +6356,25 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Marit Søberg</t>
+          <t>Sigurd Kristoffersen Torvik</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2.05,15</t>
+          <t>1.50,81</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>23.05.2009</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6391,25 +6391,25 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Anton Hoel</t>
+          <t>Marit Søberg</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>1.51,16</t>
+          <t>2.05,15</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>03.11.2012</t>
+          <t>23.05.2009</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6426,20 +6426,20 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Ingeborg Strandenes</t>
+          <t>Anton Hoel</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2.06,01</t>
+          <t>1.51,16</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>03.11.2012</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6461,20 +6461,20 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Randi Leiknes</t>
+          <t>Ingeborg Strandenes</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2.06,75</t>
+          <t>2.06,01</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>24.05.2008</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6496,20 +6496,20 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Saro Saleh</t>
+          <t>Randi Leiknes</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1.52,57</t>
+          <t>2.06,75</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>16.11.2019</t>
+          <t>24.05.2008</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -6531,20 +6531,20 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Erik Solbakken Andersen</t>
+          <t>Saro Saleh</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>1.52,88</t>
+          <t>1.52,57</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>19.01.2025</t>
+          <t>16.11.2019</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6566,25 +6566,25 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Alexander Vik Tastad</t>
+          <t>Erik Solbakken Andersen</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>1.53,28</t>
+          <t>1.52,88</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>01.04.2006</t>
+          <t>19.01.2025</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6601,12 +6601,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Voormolen Gutierrez Victor</t>
+          <t>Alexander Vik Tastad</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>1.53,06</t>
+          <t>1.53,28</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -6614,12 +6614,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>16.06.2018</t>
+          <t>01.04.2006</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6636,20 +6636,20 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Jakob M. Tjøstheim</t>
+          <t>Voormolen Gutierrez Victor</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>1.54,42</t>
+          <t>1.53,06</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>21.06.2014</t>
+          <t>16.06.2018</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6671,20 +6671,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>August Sivertsen Nestgaard</t>
+          <t>Jakob M. Tjøstheim</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>1.55,34</t>
+          <t>1.54,42</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>16.06.2018</t>
+          <t>21.06.2014</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6706,16 +6706,16 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Robert Andre Skarø</t>
+          <t>August Sivertsen Nestgaard</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>1.55,82</t>
+          <t>1.55,34</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -6741,12 +6741,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Magnus Hestvik Larsen</t>
+          <t>Robert Andre Skarø</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>1.55,79</t>
+          <t>1.55,82</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -6754,12 +6754,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>28.02.2009</t>
+          <t>16.06.2018</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6776,25 +6776,25 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Angelico Mikkel Andersen</t>
+          <t>Magnus Hestvik Larsen</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>1.56,79</t>
+          <t>1.55,79</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>19.01.2020</t>
+          <t>28.02.2009</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6811,12 +6811,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Jesper Julius Sundseth Skjærli</t>
+          <t>Angelico Mikkel Andersen</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>1.56,53</t>
+          <t>1.56,79</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -6824,12 +6824,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>19.01.2020</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6846,25 +6846,25 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Leo Alexander Farias Kristiansen</t>
+          <t>Jesper Julius Sundseth Skjærli</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>1.57,80</t>
+          <t>1.56,53</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>03.10.2021</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6881,20 +6881,20 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Brage Kaminka Heiberg</t>
+          <t>Leo Alexander Farias Kristiansen</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>1.57,94</t>
+          <t>1.57,80</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>16.09.2023</t>
+          <t>03.10.2021</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -6916,20 +6916,20 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Nataniel Skjøndal-Bar</t>
+          <t>Brage Kaminka Heiberg</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>1.58,58</t>
+          <t>1.57,94</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>19.09.2020</t>
+          <t>16.09.2023</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6951,20 +6951,20 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Idun Skjærseth</t>
+          <t>Nataniel Skjøndal-Bar</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2.14,03</t>
+          <t>1.58,58</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>18.06.2011</t>
+          <t>19.09.2020</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6986,20 +6986,20 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Nikan Ommani</t>
+          <t>Idun Skjærseth</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2.00,82</t>
+          <t>2.14,03</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>18.06.2011</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -7021,20 +7021,20 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Lukas Katekawa Theting</t>
+          <t>Nikan Ommani</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2.02,57</t>
+          <t>2.00,82</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>19.09.2020</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -7056,25 +7056,25 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Jesper Øvermo Johansen</t>
+          <t>Lukas Katekawa Theting</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2.04,03</t>
+          <t>2.02,57</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>25.10.2020</t>
+          <t>19.09.2020</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7091,12 +7091,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Arild Håkonsen Stixrud</t>
+          <t>Jesper Øvermo Johansen</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2.04,23</t>
+          <t>2.04,03</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -7104,12 +7104,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>02.03.2024</t>
+          <t>25.10.2020</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7126,20 +7126,20 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Magnus Hope</t>
+          <t>Arild Håkonsen Stixrud</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2.04,45</t>
+          <t>2.04,23</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>09.11.2024</t>
+          <t>02.03.2024</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -7161,25 +7161,25 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Leon Moen Aasrud</t>
+          <t>Magnus Hope</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2.05,39</t>
+          <t>2.04,45</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>20.04.2013</t>
+          <t>09.11.2024</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7196,25 +7196,25 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Casper Dahle-Øfsti</t>
+          <t>Leon Moen Aasrud</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2.06,27</t>
+          <t>2.05,39</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>15.09.2013</t>
+          <t>20.04.2013</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7231,25 +7231,25 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Ingeborg Vold Kirkvold</t>
+          <t>Casper Dahle-Øfsti</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2.23,66</t>
+          <t>2.06,27</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>01.12.2024</t>
+          <t>15.09.2013</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -7266,25 +7266,25 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Daniel Karlsen</t>
+          <t>Ingeborg Vold Kirkvold</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2.08,27</t>
+          <t>2.23,66</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>14.09.2014</t>
+          <t>01.12.2024</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7301,12 +7301,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Hauk Vold Kirkvold</t>
+          <t>Daniel Karlsen</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2.07,88</t>
+          <t>2.08,27</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>18.04.2021</t>
+          <t>14.09.2014</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -7336,25 +7336,25 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Vegard Olsvold</t>
+          <t>Hauk Vold Kirkvold</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2.13,78</t>
+          <t>2.07,88</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>29.02.2020</t>
+          <t>18.04.2021</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7371,25 +7371,25 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Markus Indergård Holm</t>
+          <t>Vegard Olsvold</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2.17,86</t>
+          <t>2.13,78</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>25.05.2008</t>
+          <t>29.02.2020</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7406,20 +7406,20 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Hans Otto Søyseth</t>
+          <t>Markus Indergård Holm</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2.18,29</t>
+          <t>2.17,86</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>20.06.2015</t>
+          <t>25.05.2008</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -7441,12 +7441,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Theo Sjøhelle</t>
+          <t>Hans Otto Søyseth</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2.18,52</t>
+          <t>2.18,29</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>09.11.2024</t>
+          <t>20.06.2015</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -7476,7 +7476,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Dominic Olav Sollien-Pearn</t>
+          <t>Theo Sjøhelle</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>20.06.2021</t>
+          <t>09.11.2024</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -7511,25 +7511,25 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Mikkel Fenstad</t>
+          <t>Dominic Olav Sollien-Pearn</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2.20,44</t>
+          <t>2.18,52</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>10.02.2024</t>
+          <t>20.06.2021</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -7546,25 +7546,25 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Aleksander Belsvik Skarbø</t>
+          <t>Mikkel Fenstad</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2.25,81</t>
+          <t>2.20,44</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>16.11.2019</t>
+          <t>10.02.2024</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -7581,20 +7581,20 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Alfred Høgden Magnussen</t>
+          <t>Aleksander Belsvik Skarbø</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2.27,64</t>
+          <t>2.25,81</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>11.09.2016</t>
+          <t>16.11.2019</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -7616,20 +7616,20 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Fredrik Hårsaker Myrenget</t>
+          <t>Alfred Høgden Magnussen</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2.28,24</t>
+          <t>2.27,64</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>16.01.2015</t>
+          <t>11.09.2016</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -7651,20 +7651,20 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Jo Svendsen</t>
+          <t>Fredrik Hårsaker Myrenget</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2.31,01</t>
+          <t>2.28,24</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>16.11.2019</t>
+          <t>16.01.2015</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -7686,20 +7686,20 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Gajithsing Ajeethsing</t>
+          <t>Jo Svendsen</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2.31,15</t>
+          <t>2.31,01</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>19.06.2021</t>
+          <t>16.11.2019</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -7721,25 +7721,25 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Eirik Solligård</t>
+          <t>Gajithsing Ajeethsing</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2.34,77</t>
+          <t>2.31,15</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>14.02.2009</t>
+          <t>19.06.2021</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -7756,25 +7756,25 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Riccardo Manum</t>
+          <t>Eirik Solligård</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2.47,06</t>
+          <t>2.34,77</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>19.01.2025</t>
+          <t>14.02.2009</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -7791,20 +7791,20 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>André Prestmo-Edvardsen</t>
+          <t>Riccardo Manum</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2.51,68</t>
+          <t>2.47,06</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>16.11.2019</t>
+          <t>19.01.2025</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -7826,12 +7826,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Alexander Andersen</t>
+          <t>André Prestmo-Edvardsen</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2.51,31</t>
+          <t>2.51,68</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>15.09.2013</t>
+          <t>16.11.2019</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -7861,12 +7861,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Håvard Hægstad Johnsen</t>
+          <t>Alexander Andersen</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2.50,67</t>
+          <t>2.51,31</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>18.06.2011</t>
+          <t>15.09.2013</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -7896,33 +7896,68 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
+          <t>Håvard Hægstad Johnsen</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2.50,67</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>33</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>18.06.2011</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Trondheim</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>25m</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
           <t>Aris Stafsnes Califano</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>2.56,67</t>
         </is>
       </c>
-      <c r="C214" t="n">
+      <c r="C215" t="n">
         <v>30</v>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="D215" t="inlineStr">
         <is>
           <t>07.03.2020</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Trondheim</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>25m</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Trondheim</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>25m</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
@@ -7939,7 +7974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9772,20 +9807,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sigurd Rodal Leirgulen</t>
+          <t>Bjarne Forfot</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1.28,74</t>
+          <t>1.28,40</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>30.06.2019</t>
+          <t>02.07.2018</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -9807,16 +9842,16 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Jon Noé Høye</t>
+          <t>Sigurd Rodal Leirgulen</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1.28,87</t>
+          <t>1.28,74</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -9842,12 +9877,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Eirik Hakvåg-Sandengen</t>
+          <t>Jon Noé Høye</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1.28,83</t>
+          <t>1.28,87</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -9855,12 +9890,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>29.04.2022</t>
+          <t>30.06.2019</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -9877,25 +9912,25 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Lucas Nachappa Muthanna</t>
+          <t>Eirik Hakvåg-Sandengen</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1.29,57</t>
+          <t>1.28,83</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>15.06.2024</t>
+          <t>29.04.2022</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -9912,20 +9947,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sondre Aakerholm Adsen</t>
+          <t>Lucas Nachappa Muthanna</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1.29,94</t>
+          <t>1.29,57</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>14.06.2024</t>
+          <t>15.06.2024</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -9947,25 +9982,25 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Liv Løfaldli</t>
+          <t>Sondre Aakerholm Adsen</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1.41,72</t>
+          <t>1.29,94</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>29.06.2025</t>
+          <t>14.06.2024</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -9982,12 +10017,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Tor Arne Hegvik</t>
+          <t>Liv Løfaldli</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1.30,21</t>
+          <t>1.41,72</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -9995,12 +10030,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>11.06.2006</t>
+          <t>29.06.2025</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -10017,20 +10052,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Even Kristoffer Lind Bøckman</t>
+          <t>Tor Arne Hegvik</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1.30,66</t>
+          <t>1.30,21</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>11.06.2006</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -10052,25 +10087,25 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Ask Yifei Baldersheim</t>
+          <t>Even Kristoffer Lind Bøckman</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1.31,01</t>
+          <t>1.30,66</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>03.07.2022</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -10087,12 +10122,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Bjørn Eimar Endal Sorteberg</t>
+          <t>Ask Yifei Baldersheim</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1.30,97</t>
+          <t>1.31,01</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -10100,7 +10135,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>29.06.2025</t>
+          <t>03.07.2022</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -10122,25 +10157,25 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Elian Theodor Kringstad</t>
+          <t>Bjørn Eimar Endal Sorteberg</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1.31,21</t>
+          <t>1.30,97</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>14.06.2024</t>
+          <t>29.06.2025</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -10157,25 +10192,25 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ellen Kristine Eidsmo Hova</t>
+          <t>Elian Theodor Kringstad</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1.43,18</t>
+          <t>1.31,21</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>14.06.2024</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -10192,25 +10227,25 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Henning Andersson</t>
+          <t>Ellen Kristine Eidsmo Hova</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1.31,62</t>
+          <t>1.43,18</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>13.04.2013</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -10227,25 +10262,25 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Philip Giske Nyman</t>
+          <t>Henning Andersson</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1.32,04</t>
+          <t>1.31,62</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>13.04.2013</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -10262,12 +10297,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Leo Petter Hauge Sølvberg</t>
+          <t>Philip Giske Nyman</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1.31,95</t>
+          <t>1.32,04</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -10275,7 +10310,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>13.06.2014</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -10297,25 +10332,25 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Balder Baarholm</t>
+          <t>Leo Petter Hauge Sølvberg</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1.32,30</t>
+          <t>1.31,95</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>30.06.2024</t>
+          <t>13.06.2014</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -10332,20 +10367,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Christian Dahle-Øfsti</t>
+          <t>Balder Baarholm</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1.32,33</t>
+          <t>1.32,30</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>07.07.2013</t>
+          <t>30.06.2024</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -10367,25 +10402,25 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Birk Skaalvik Trelstad</t>
+          <t>Christian Dahle-Øfsti</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1.32,51</t>
+          <t>1.32,33</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>30.04.2022</t>
+          <t>07.07.2013</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -10402,20 +10437,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Anton Sergeevich Gorodkov</t>
+          <t>Birk Skaalvik Trelstad</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1.33,50</t>
+          <t>1.32,51</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>12.06.2015</t>
+          <t>30.04.2022</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -10437,25 +10472,25 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Jonas D. Lesund</t>
+          <t>Anton Sergeevich Gorodkov</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1.34,00</t>
+          <t>1.33,50</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>13.04.2013</t>
+          <t>12.06.2015</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -10472,25 +10507,25 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Aksel Viken Refseth</t>
+          <t>Jonas D. Lesund</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1.34,97</t>
+          <t>1.34,00</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>30.06.2024</t>
+          <t>13.04.2013</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -10507,20 +10542,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Finn Øivind Fevang</t>
+          <t>Aksel Viken Refseth</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1.35,50</t>
+          <t>1.34,97</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>02.07.2006</t>
+          <t>30.06.2024</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -10542,25 +10577,25 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Kristian Myhr Høgstøl</t>
+          <t>Finn Øivind Fevang</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1.35,72</t>
+          <t>1.35,50</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>02.07.2006</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -10577,25 +10612,25 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Hasith Ransiri Attanapola</t>
+          <t>Kristian Myhr Høgstøl</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1.35,91</t>
+          <t>1.35,72</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>13.04.2018</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -10612,25 +10647,25 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Daniel Haugen Ngwenya</t>
+          <t>Hasith Ransiri Attanapola</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1.36,06</t>
+          <t>1.35,91</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>28.04.2007</t>
+          <t>13.04.2018</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -10647,25 +10682,25 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Johannes Tryggestad</t>
+          <t>Daniel Haugen Ngwenya</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1.36,17</t>
+          <t>1.36,06</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>28.04.2007</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -10682,25 +10717,25 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Kristin Stallvik</t>
+          <t>Johannes Tryggestad</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1.48,93</t>
+          <t>1.36,17</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>26.10.2019</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Vantaa</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -10717,12 +10752,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Mattias Isaksen</t>
+          <t>Kristin Stallvik</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1.36,55</t>
+          <t>1.48,93</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -10730,12 +10765,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>15.06.2024</t>
+          <t>26.10.2019</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Vantaa</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -10752,16 +10787,16 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Edvin Aurstad Bergum</t>
+          <t>Mattias Isaksen</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1.37,87</t>
+          <t>1.36,55</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -10787,25 +10822,25 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Daniel Stanislaw Czuba</t>
+          <t>Edvin Aurstad Bergum</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1.37,97</t>
+          <t>1.37,87</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>29.06.2025</t>
+          <t>15.06.2024</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -10822,25 +10857,25 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Edvard Hamnes Ulriksen</t>
+          <t>Daniel Stanislaw Czuba</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1.38,15</t>
+          <t>1.37,97</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>29.06.2025</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -10857,16 +10892,16 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Eirik Hamnes Ulriksen</t>
+          <t>Edvard Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1.38,52</t>
+          <t>1.38,15</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -10892,20 +10927,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Lin Carola Magdalene Nygren</t>
+          <t>Eirik Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1.52,38</t>
+          <t>1.38,52</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>15.06.2025</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -10927,25 +10962,25 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Eilert Juul Wolfgang</t>
+          <t>Lin Carola Magdalene Nygren</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1.40,02</t>
+          <t>1.52,38</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>07.07.2013</t>
+          <t>15.06.2025</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -10962,25 +10997,25 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Fredrik Holberg</t>
+          <t>Eilert Juul Wolfgang</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1.40,46</t>
+          <t>1.40,02</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>07.07.2013</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -10997,20 +11032,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Theodor Solheim</t>
+          <t>Fredrik Holberg</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1.46,31</t>
+          <t>1.40,46</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>16.06.2019</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -11032,25 +11067,25 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Brage Gylseth Dahl</t>
+          <t>Theodor Solheim</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1.47,15</t>
+          <t>1.46,31</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>14.06.2024</t>
+          <t>16.06.2019</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -11067,25 +11102,25 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Thomas Stur Ekrem</t>
+          <t>Brage Gylseth Dahl</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1.48,03</t>
+          <t>1.47,15</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>01.05.2022</t>
+          <t>14.06.2024</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -11102,20 +11137,20 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Lyder Ringsvold Hogstad</t>
+          <t>Thomas Stur Ekrem</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1.48,77</t>
+          <t>1.48,03</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>08.06.2018</t>
+          <t>01.05.2022</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -11137,20 +11172,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Erik Solbakken Andersen</t>
+          <t>Lyder Ringsvold Hogstad</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1.50,52</t>
+          <t>1.48,77</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>08.06.2018</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -11172,20 +11207,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ivan Erikovitch Alvestad</t>
+          <t>Erik Solbakken Andersen</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1.51,06</t>
+          <t>1.50,52</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>16.06.2019</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -11207,12 +11242,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Olav Høyland Hofstad</t>
+          <t>Ivan Erikovitch Alvestad</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1.51,02</t>
+          <t>1.51,06</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -11220,7 +11255,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>15.06.2025</t>
+          <t>16.06.2019</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -11242,20 +11277,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Tymofii Dzisiak</t>
+          <t>Olav Høyland Hofstad</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1.51,37</t>
+          <t>1.51,02</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>15.06.2025</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -11277,25 +11312,25 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Edvin Grenne Spangelo</t>
+          <t>Tymofii Dzisiak</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1.54,32</t>
+          <t>1.51,37</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>14.06.2024</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -11312,25 +11347,25 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Stian Nilsen</t>
+          <t>Edvin Grenne Spangelo</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1.55,68</t>
+          <t>1.54,32</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>29.04.2006</t>
+          <t>14.06.2024</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -11347,25 +11382,25 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Robin von Bargen</t>
+          <t>Stian Nilsen</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1.56,01</t>
+          <t>1.55,68</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>14.06.2009</t>
+          <t>29.04.2006</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -11382,12 +11417,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>William Johannes Kirkelund Kristiansen</t>
+          <t>Robin von Bargen</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1.56,09</t>
+          <t>1.56,01</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -11395,7 +11430,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>29.04.2022</t>
+          <t>14.06.2009</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -11417,20 +11452,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Jesper Julius Sundseth Skjærli</t>
+          <t>William Johannes Kirkelund Kristiansen</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2.00,56</t>
+          <t>1.56,09</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>15.06.2025</t>
+          <t>29.04.2022</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -11452,25 +11487,25 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Bernard Smuk</t>
+          <t>Jesper Julius Sundseth Skjærli</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2.00,88</t>
+          <t>2.00,56</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>16.06.2024</t>
+          <t>15.06.2025</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -11487,25 +11522,25 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Randi Leiknes</t>
+          <t>Bernard Smuk</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2.16,82</t>
+          <t>2.00,88</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>08.01.2008</t>
+          <t>16.06.2024</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -11522,25 +11557,25 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Iselin Græsli Skaret</t>
+          <t>Randi Leiknes</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2.18,52</t>
+          <t>2.16,82</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>08.01.2008</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -11557,25 +11592,25 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Magnus Bakkejord</t>
+          <t>Iselin Græsli Skaret</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2.05,99</t>
+          <t>2.18,52</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>09.04.2011</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -11592,25 +11627,25 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Vegard Maaø</t>
+          <t>Magnus Bakkejord</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2.07,17</t>
+          <t>2.05,99</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>05.11.2006</t>
+          <t>09.04.2011</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -11627,25 +11662,25 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Rasmus Larsen Natvig</t>
+          <t>Vegard Maaø</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2.07,45</t>
+          <t>2.07,17</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>14.06.2024</t>
+          <t>05.11.2006</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -11662,25 +11697,25 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Elias Hauge Lien</t>
+          <t>Rasmus Larsen Natvig</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2.08,43</t>
+          <t>2.07,45</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>14.06.2024</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -11697,33 +11732,68 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>Elias Hauge Lien</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2.08,43</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>86</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>14.06.2019</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Hamar</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>50m</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
           <t>Marit Søberg</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>2.32,24</t>
         </is>
       </c>
-      <c r="C108" t="n">
+      <c r="C109" t="n">
         <v>74</v>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>08.01.2008</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Trondheim</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Trondheim</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
         <is>
           <t>50m</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
@@ -11740,7 +11810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15638,20 +15708,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Bjarne Forfot</t>
+          <t>Sofie Hepsø</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1.28,39</t>
+          <t>1.40,11</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>19.01.2018</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -15673,25 +15743,25 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sofie Hepsø</t>
+          <t>Diana Stafsnes Califano</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1.40,11</t>
+          <t>1.40,62</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>04.09.2021</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -15708,25 +15778,25 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Diana Stafsnes Califano</t>
+          <t>Sigrid Moen Henriksen</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1.40,62</t>
+          <t>1.40,72</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>04.09.2021</t>
+          <t>17.06.2023</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -15743,25 +15813,25 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sigrid Moen Henriksen</t>
+          <t>Live Killingberg Sandberg</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1.40,72</t>
+          <t>1.40,92</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>17.06.2023</t>
+          <t>29.02.2020</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -15778,25 +15848,25 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Live Killingberg Sandberg</t>
+          <t>Hansine Rindberg Monsø</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1.40,92</t>
+          <t>1.41,18</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>29.02.2020</t>
+          <t>01.12.2024</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -15813,25 +15883,25 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Hansine Rindberg Monsø</t>
+          <t>Amalie Solvoll</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1.41,18</t>
+          <t>1.42,34</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>01.12.2024</t>
+          <t>17.11.2018</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -15848,25 +15918,25 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Amalie Solvoll</t>
+          <t>Marte Hemmer</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1.42,34</t>
+          <t>1.42,49</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>17.11.2018</t>
+          <t>04.02.2005</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -15883,12 +15953,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Marte Hemmer</t>
+          <t>Oline Skjønberg</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1.42,49</t>
+          <t>1.42,41</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -15896,7 +15966,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>04.02.2005</t>
+          <t>19.01.2020</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -15918,25 +15988,25 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Oline Skjønberg</t>
+          <t>Mia Bretun Finserå</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1.42,41</t>
+          <t>1.42,58</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>19.01.2020</t>
+          <t>28.10.2012</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -15953,12 +16023,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Mia Bretun Finserå</t>
+          <t>Helle Lundgren</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1.42,58</t>
+          <t>1.42,61</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -15966,12 +16036,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>28.10.2012</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -15988,20 +16058,20 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Helle Lundgren</t>
+          <t>Anahita Koushan</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1.42,61</t>
+          <t>1.42,74</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -16023,12 +16093,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Anahita Koushan</t>
+          <t>Miriam Vedvik</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1.42,74</t>
+          <t>1.42,81</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -16036,7 +16106,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>18.03.2007</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -16058,25 +16128,25 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Miriam Vedvik</t>
+          <t>Sofie Hoff</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1.42,81</t>
+          <t>1.43,29</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>18.03.2007</t>
+          <t>06.04.2024</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -16093,20 +16163,20 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sofie Hoff</t>
+          <t>Sara Skaalvik Trelstad</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1.43,29</t>
+          <t>1.44,09</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>06.04.2024</t>
+          <t>05.04.2014</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -16128,25 +16198,25 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sara Skaalvik Trelstad</t>
+          <t>Pia Helena Wildhagen</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1.44,09</t>
+          <t>1.44,21</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>05.04.2014</t>
+          <t>10.03.2018</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -16163,20 +16233,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Pia Helena Wildhagen</t>
+          <t>Aurora Johanne Mittet</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1.44,21</t>
+          <t>1.44,29</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>10.03.2018</t>
+          <t>13.01.2017</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -16198,12 +16268,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Aurora Johanne Mittet</t>
+          <t>Helle Johnsen Selsås</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1.44,29</t>
+          <t>1.44,37</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -16211,7 +16281,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>13.01.2017</t>
+          <t>19.01.2025</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -16233,25 +16303,25 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Helle Johnsen Selsås</t>
+          <t>Julie Wiik Arnesen</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1.44,37</t>
+          <t>1.45,77</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>19.01.2025</t>
+          <t>09.11.2019</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -16268,25 +16338,25 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Julie Wiik Arnesen</t>
+          <t>Victoria Dessen</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1.45,77</t>
+          <t>1.45,96</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>09.11.2019</t>
+          <t>09.10.2005</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -16303,25 +16373,25 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Victoria Dessen</t>
+          <t>Elsa Dragsten Wake</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1.45,96</t>
+          <t>1.46,74</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>09.10.2005</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -16338,25 +16408,25 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Elsa Dragsten Wake</t>
+          <t>Magne Petersen</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1.46,74</t>
+          <t>1.34,91</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>02.03.2013</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -16373,25 +16443,25 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Magne Petersen</t>
+          <t>Selma Strandjord Lillerødvann</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1.34,91</t>
+          <t>1.47,53</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>02.03.2013</t>
+          <t>01.12.2024</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -16408,25 +16478,25 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Selma Strandjord Lillerødvann</t>
+          <t>Aurora Marken Fredriksen</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1.47,53</t>
+          <t>1.47,70</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>01.12.2024</t>
+          <t>29.10.2022</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -16443,25 +16513,25 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Aurora Marken Fredriksen</t>
+          <t>Madeleine Tran Wæraas</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1.47,70</t>
+          <t>1.48,00</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>29.10.2022</t>
+          <t>27.10.2019</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -16478,25 +16548,25 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Madeleine Tran Wæraas</t>
+          <t>Michaela Josefin Abeleva Barrera</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1.48,00</t>
+          <t>1.48,54</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>27.10.2019</t>
+          <t>16.02.2025</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -16513,25 +16583,25 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Michaela Josefin Abeleva Barrera</t>
+          <t>Elina Arefjord Spangelo</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1.48,54</t>
+          <t>1.48,93</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>16.02.2025</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -16548,25 +16618,25 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Elina Arefjord Spangelo</t>
+          <t>Susanne Kolloen</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1.48,93</t>
+          <t>1.49,17</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>25.10.2020</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -16583,25 +16653,25 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Susanne Kolloen</t>
+          <t>Luma Nicole Farias Kristiansen</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1.49,17</t>
+          <t>1.49,62</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>25.10.2020</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -16618,25 +16688,25 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Luma Nicole Farias Kristiansen</t>
+          <t>Camila Dorao</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1.49,62</t>
+          <t>1.49,80</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>22.02.2025</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -16653,25 +16723,25 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Camila Dorao</t>
+          <t>Elise Øystrøm Tyvold</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1.49,80</t>
+          <t>1.49,84</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>22.02.2025</t>
+          <t>17.11.2019</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -16688,12 +16758,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Elise Øystrøm Tyvold</t>
+          <t>Inga Victoria Kirabo Nygård</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1.49,84</t>
+          <t>1.49,95</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -16701,7 +16771,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>17.11.2019</t>
+          <t>06.03.2022</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -16723,25 +16793,25 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Inga Victoria Kirabo Nygård</t>
+          <t>Agnete Gridseth Røstad</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1.49,95</t>
+          <t>1.50,14</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>06.03.2022</t>
+          <t>06.12.2008</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -16758,12 +16828,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Agnete Gridseth Røstad</t>
+          <t>Aurora S. Juel</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1.50,14</t>
+          <t>1.50,09</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -16771,12 +16841,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>06.12.2008</t>
+          <t>03.03.2012</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -16793,25 +16863,25 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Aurora S. Juel</t>
+          <t>Ramona Vutudal</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1.50,09</t>
+          <t>1.50,59</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>03.03.2012</t>
+          <t>19.04.2009</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -16828,25 +16898,25 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Ramona Vutudal</t>
+          <t>Julia Lervold Høffler</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1.50,59</t>
+          <t>1.51,44</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>19.04.2009</t>
+          <t>06.12.2008</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -16863,25 +16933,25 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Julia Lervold Høffler</t>
+          <t>Kaia Winnberg</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1.51,44</t>
+          <t>1.51,56</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>06.12.2008</t>
+          <t>16.03.2024</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -16898,12 +16968,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Kaia Winnberg</t>
+          <t>Nora Grande Bjerkan</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1.51,56</t>
+          <t>1.51,63</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -16911,12 +16981,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>16.03.2024</t>
+          <t>19.06.2010</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -16933,25 +17003,25 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Nora Grande Bjerkan</t>
+          <t>Hedda Thorgaard</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1.51,63</t>
+          <t>1.52,24</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>19.06.2010</t>
+          <t>05.12.2021</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -16968,25 +17038,25 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Hedda Thorgaard</t>
+          <t>Chloe Branlat</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1.52,24</t>
+          <t>1.52,49</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>05.12.2021</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -17003,25 +17073,25 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Chloe Branlat</t>
+          <t>Julia Beatrice Ferreira Kristiansen</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1.52,49</t>
+          <t>1.52,60</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>20.06.2015</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -17038,25 +17108,25 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Julia Beatrice Ferreira Kristiansen</t>
+          <t>Lea almaas</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1.52,60</t>
+          <t>1.53,23</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>20.06.2015</t>
+          <t>11.02.2012</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -17073,25 +17143,25 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Lea almaas</t>
+          <t>Emilie Sandvik Gangåssæter</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1.53,23</t>
+          <t>1.53,84</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>11.02.2012</t>
+          <t>20.10.2019</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -17108,25 +17178,25 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Emilie Sandvik Gangåssæter</t>
+          <t>Arne Martin Einarsrud Rismoen</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1.53,84</t>
+          <t>1.41,28</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>20.10.2019</t>
+          <t>19.06.2022</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -17143,25 +17213,25 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Arne Martin Einarsrud Rismoen</t>
+          <t>Ina Birgitte Eidsmo Hova</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1.41,28</t>
+          <t>1.54,70</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>19.06.2022</t>
+          <t>01.12.2024</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -17178,25 +17248,25 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Ina Birgitte Eidsmo Hova</t>
+          <t>Louise Thys</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1.54,70</t>
+          <t>1.54,94</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>01.12.2024</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -17213,12 +17283,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Louise Thys</t>
+          <t>Ingrid Lianes</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1.54,94</t>
+          <t>1.54,96</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -17226,12 +17296,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>14.02.2009</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -17248,25 +17318,25 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Ingrid Lianes</t>
+          <t>Phoebe Thalberg Fagerheim</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1.54,96</t>
+          <t>1.55,32</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>14.02.2009</t>
+          <t>13.01.2013</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -17283,12 +17353,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Phoebe Thalberg Fagerheim</t>
+          <t>Synnøve Fevang</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1.55,32</t>
+          <t>1.55,15</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -17296,12 +17366,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>13.01.2013</t>
+          <t>30.10.2005</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -17318,25 +17388,25 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Synnøve Fevang</t>
+          <t>Cathrine Hegle</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1.55,15</t>
+          <t>1.55,65</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>30.10.2005</t>
+          <t>12.02.2011</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -17353,12 +17423,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Cathrine Hegle</t>
+          <t>Julia Tan</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1.55,65</t>
+          <t>1.55,84</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -17366,12 +17436,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>12.02.2011</t>
+          <t>19.04.2009</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -17388,25 +17458,25 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Julia Tan</t>
+          <t>Ingrid Skye Naustvoll</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1.55,84</t>
+          <t>1.56,01</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>19.04.2009</t>
+          <t>20.04.2013</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -17423,12 +17493,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Ingrid Skye Naustvoll</t>
+          <t>Sigrid Gylseth Dahl</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1.56,01</t>
+          <t>1.55,91</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -17436,12 +17506,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>20.04.2013</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -17458,16 +17528,16 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sigrid Gylseth Dahl</t>
+          <t>Hedda Gätzschmann</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1.55,91</t>
+          <t>1.56,46</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -17493,12 +17563,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Hedda Gätzschmann</t>
+          <t>Ida Fiskaa Barstad</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1.56,46</t>
+          <t>1.56,45</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -17506,7 +17576,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>22.06.2019</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -17528,25 +17598,25 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Ida Fiskaa Barstad</t>
+          <t>Amalie Gylseth Dahl</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1.56,45</t>
+          <t>1.57,18</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>22.06.2019</t>
+          <t>02.12.2023</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -17563,25 +17633,25 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Amalie Gylseth Dahl</t>
+          <t>Kristina Bragadottir</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1.57,18</t>
+          <t>1.57,67</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>02.12.2023</t>
+          <t>16.06.2012</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -17598,20 +17668,20 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Kristina Bragadottir</t>
+          <t>Aurora Dahl Bere</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1.57,67</t>
+          <t>1.58,63</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>16.06.2012</t>
+          <t>09.11.2024</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -17633,12 +17703,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Aurora Dahl Bere</t>
+          <t>Vilma Granhus Følstad</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1.58,63</t>
+          <t>1.58,59</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -17646,7 +17716,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>09.11.2024</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -17668,20 +17738,20 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Vilma Granhus Følstad</t>
+          <t>Frida Merethe Norli Eidsvåg</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1.58,59</t>
+          <t>1.58,97</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>18.06.2016</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -17703,25 +17773,25 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Frida Merethe Norli Eidsvåg</t>
+          <t>Tora Tveiten</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>1.58,97</t>
+          <t>1.59,27</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>18.06.2016</t>
+          <t>25.10.2014</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -17738,12 +17808,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Tora Tveiten</t>
+          <t>Nora Elvira Wengstad Jakobsen</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1.59,27</t>
+          <t>1.59,50</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -17751,12 +17821,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>25.10.2014</t>
+          <t>19.09.2020</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -17773,20 +17843,20 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Nora Elvira Wengstad Jakobsen</t>
+          <t>Emma Nedeea Hagen</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1.59,50</t>
+          <t>1.59,62</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>19.09.2020</t>
+          <t>03.10.2021</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -17808,20 +17878,20 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Emma Nedeea Hagen</t>
+          <t>Ronja Emilia Wikström</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1.59,62</t>
+          <t>1.59,84</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>03.10.2021</t>
+          <t>17.06.2023</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -17843,20 +17913,20 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Ronja Emilia Wikström</t>
+          <t>Marita Fuglestad Løkken</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>1.59,84</t>
+          <t>2.00,63</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>17.06.2023</t>
+          <t>01.03.2014</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -17878,20 +17948,20 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Marita Fuglestad Løkken</t>
+          <t>Ella Katrine Lind Bøckman</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2.00,63</t>
+          <t>2.01,47</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>01.03.2014</t>
+          <t>19.01.2020</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -17913,20 +17983,20 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Ella Katrine Lind Bøckman</t>
+          <t>Else Malin Meidal</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2.01,47</t>
+          <t>2.01,64</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>19.01.2020</t>
+          <t>16.06.2012</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -17948,20 +18018,20 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Else Malin Meidal</t>
+          <t>Annika Ebbesen</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2.01,64</t>
+          <t>2.02,39</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>16.06.2012</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -17983,25 +18053,25 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Annika Ebbesen</t>
+          <t>Julie Gilbu</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2.02,39</t>
+          <t>2.02,98</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>18.10.2015</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -18018,25 +18088,25 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Julie Gilbu</t>
+          <t>Camilla Gervasoni</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2.02,98</t>
+          <t>2.03,53</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>18.10.2015</t>
+          <t>16.09.2012</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -18053,20 +18123,20 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Camilla Gervasoni</t>
+          <t>Marie Wærnes Blom</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2.03,53</t>
+          <t>2.03,95</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>16.09.2012</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -18088,20 +18158,20 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Marie Wærnes Blom</t>
+          <t>Sanna Beckstrøm</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2.03,95</t>
+          <t>2.04,31</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>21.05.2005</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -18123,12 +18193,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sanna Beckstrøm</t>
+          <t>Karolina Kania</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2.04,31</t>
+          <t>2.04,35</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -18136,7 +18206,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>21.05.2005</t>
+          <t>03.10.2021</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -18158,20 +18228,20 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Karolina Kania</t>
+          <t>Ilaria Kari Cherubini</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2.04,35</t>
+          <t>2.07,01</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>03.10.2021</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -18193,12 +18263,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Ilaria Kari Cherubini</t>
+          <t>Amelia Roaldseth</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2.07,01</t>
+          <t>2.06,91</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -18206,12 +18276,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>06.12.2008</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -18228,20 +18298,20 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Amelia Roaldseth</t>
+          <t>Sara Olea  Riseth Moe</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2.06,91</t>
+          <t>2.08,95</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>06.12.2008</t>
+          <t>22.02.2025</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -18263,12 +18333,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sara Olea  Riseth Moe</t>
+          <t>Sunniva Eldholm</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2.08,95</t>
+          <t>2.08,74</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -18276,12 +18346,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>22.02.2025</t>
+          <t>18.04.2021</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -18298,20 +18368,20 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sunniva Eldholm</t>
+          <t>Nicoline Vinje</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2.08,74</t>
+          <t>2.09,52</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>18.04.2021</t>
+          <t>17.01.2025</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -18333,20 +18403,20 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Nicoline Vinje</t>
+          <t>Live Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2.09,52</t>
+          <t>2.10,16</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>17.01.2025</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -18368,12 +18438,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Live Hamnes Ulriksen</t>
+          <t>Enya Emilie Knarlag Beckstrøm</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2.10,16</t>
+          <t>2.10,41</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -18381,7 +18451,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>16.11.2019</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -18403,20 +18473,20 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Enya Emilie Knarlag Beckstrøm</t>
+          <t>Olivia Hjelmeseth Larsen</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2.10,41</t>
+          <t>2.11,18</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>16.11.2019</t>
+          <t>19.11.2022</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -18438,20 +18508,20 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Olivia Hjelmeseth Larsen</t>
+          <t>Mina Gravdahl</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2.11,18</t>
+          <t>2.13,62</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>19.11.2022</t>
+          <t>19.03.2006</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -18473,20 +18543,20 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Mina Gravdahl</t>
+          <t>Mina Brantenberg Rønne</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2.13,62</t>
+          <t>2.15,15</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>19.03.2006</t>
+          <t>03.10.2021</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -18508,20 +18578,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Mina Brantenberg Rønne</t>
+          <t>Thale Urkedahl Biering</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2.15,15</t>
+          <t>2.15,82</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>03.10.2021</t>
+          <t>16.06.2012</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -18543,20 +18613,20 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Thale Urkedahl Biering</t>
+          <t>Elena Fyhn Leida</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2.15,82</t>
+          <t>2.16,66</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>16.06.2012</t>
+          <t>20.06.2021</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -18578,20 +18648,20 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Elena Fyhn Leida</t>
+          <t>Kine Winnberg</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2.16,66</t>
+          <t>2.17,35</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>20.06.2021</t>
+          <t>17.06.2023</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -18613,12 +18683,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Kine Winnberg</t>
+          <t>Leona Storn</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2.17,35</t>
+          <t>2.17,19</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -18626,12 +18696,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>17.06.2023</t>
+          <t>09.11.2013</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -18648,25 +18718,25 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Leona Storn</t>
+          <t>Anna Fenstad Høysæter</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2.17,19</t>
+          <t>2.17,95</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>09.11.2013</t>
+          <t>07.03.2020</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -18683,20 +18753,20 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Anna Fenstad Høysæter</t>
+          <t>Aida Smalø Moen</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2.17,95</t>
+          <t>2.19,62</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>07.03.2020</t>
+          <t>03.03.2012</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -18718,20 +18788,20 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Aida Smalø Moen</t>
+          <t>KARIANNE HUSBY</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2.19,62</t>
+          <t>2.21,58</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>03.03.2012</t>
+          <t>18.06.2011</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -18753,20 +18823,20 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>KARIANNE HUSBY</t>
+          <t>Mia Meldal Tjøstheim</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2.21,58</t>
+          <t>2.28,07</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>18.06.2011</t>
+          <t>07.03.2015</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -18788,20 +18858,20 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Mia Meldal Tjøstheim</t>
+          <t>Charlotte Talseth</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2.28,07</t>
+          <t>2.30,34</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>07.03.2015</t>
+          <t>09.11.2024</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -18823,20 +18893,20 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Charlotte Talseth</t>
+          <t>Snorre Risholt Moen</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2.30,34</t>
+          <t>2.13,64</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>09.11.2024</t>
+          <t>15.09.2013</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -18858,25 +18928,25 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Snorre Risholt Moen</t>
+          <t>Ronja Andreassen</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2.13,64</t>
+          <t>2.35,83</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>15.09.2013</t>
+          <t>17.04.2005</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -18893,25 +18963,25 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Ronja Andreassen</t>
+          <t>Emma Hilmarsen</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2.35,83</t>
+          <t>2.40,96</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>17.04.2005</t>
+          <t>02.02.2013</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -18928,25 +18998,25 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Emma Hilmarsen</t>
+          <t>Kristine Haram Bye</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2.40,96</t>
+          <t>2.44,83</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>02.02.2013</t>
+          <t>30.10.2010</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -18963,20 +19033,20 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Kristine Haram Bye</t>
+          <t>Ola Husan</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2.44,83</t>
+          <t>2.29,15</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>30.10.2010</t>
+          <t>06.03.2022</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -18998,20 +19068,20 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Ola Husan</t>
+          <t>Emre Stafsnes Califano</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2.29,15</t>
+          <t>2.37,82</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>06.03.2022</t>
+          <t>07.03.2020</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -19033,20 +19103,20 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Emre Stafsnes Califano</t>
+          <t>Maria Karoline Aronsen</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2.37,82</t>
+          <t>3.03,03</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>07.03.2020</t>
+          <t>19.03.2006</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -19060,41 +19130,6 @@
         </is>
       </c>
       <c r="G209" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Maria Karoline Aronsen</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>3.03,03</t>
-        </is>
-      </c>
-      <c r="C210" t="n">
-        <v>39</v>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>19.03.2006</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Trondheim</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>25m</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
@@ -19111,7 +19146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21224,25 +21259,25 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Bjarne Forfot</t>
+          <t>Emre Vold Kirkvold</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1.28,40</t>
+          <t>1.29,12</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>02.07.2018</t>
+          <t>15.06.2025</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -21259,25 +21294,25 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Emre Vold Kirkvold</t>
+          <t>Oda Sem Austmo</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1.29,12</t>
+          <t>1.41,19</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>15.06.2025</t>
+          <t>22.06.2014</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -21294,25 +21329,25 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Oda Sem Austmo</t>
+          <t>Maud Steinsdotter Nestgaard</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1.41,19</t>
+          <t>1.43,02</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>22.06.2014</t>
+          <t>07.07.2013</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -21329,16 +21364,16 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Maud Steinsdotter Nestgaard</t>
+          <t>Ingrid Elverum</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1.43,02</t>
+          <t>1.43,92</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -21364,12 +21399,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Ingrid Elverum</t>
+          <t>Anna Svendsen</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1.43,92</t>
+          <t>1.43,87</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -21377,12 +21412,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>07.07.2013</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -21399,25 +21434,25 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Anna Svendsen</t>
+          <t>Hanne Søyseth</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1.43,87</t>
+          <t>1.44,21</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>19.04.2015</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -21434,25 +21469,25 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Hanne Søyseth</t>
+          <t>Helene Marie Haram</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1.44,21</t>
+          <t>1.44,49</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>19.04.2015</t>
+          <t>16.06.2019</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -21469,25 +21504,25 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Helene Marie Haram</t>
+          <t>Helle Lundgren</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1.44,49</t>
+          <t>1.45,61</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>16.06.2019</t>
+          <t>29.06.2025</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -21504,25 +21539,25 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Helle Lundgren</t>
+          <t>Sofia Bjørklund Mora</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1.45,61</t>
+          <t>1.46,26</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>29.06.2025</t>
+          <t>27.04.2014</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -21539,20 +21574,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sofia Bjørklund Mora</t>
+          <t>Miriam Vedvik</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1.46,26</t>
+          <t>1.46,53</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>27.04.2014</t>
+          <t>28.04.2007</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -21574,25 +21609,25 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Miriam Vedvik</t>
+          <t>Guro Rønningen Osmoen</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1.46,53</t>
+          <t>1.47,83</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>28.04.2007</t>
+          <t>30.06.2024</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -21609,25 +21644,25 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Guro Rønningen Osmoen</t>
+          <t>Diana Stafsnes Califano</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1.47,83</t>
+          <t>1.48,43</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>30.06.2024</t>
+          <t>05.04.2019</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -21644,12 +21679,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Diana Stafsnes Califano</t>
+          <t>Elsa Dragsten Wake</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1.48,43</t>
+          <t>1.48,49</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -21657,12 +21692,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>05.04.2019</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -21679,25 +21714,25 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Elsa Dragsten Wake</t>
+          <t>Viktoria Juel</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1.48,49</t>
+          <t>1.48,59</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>01.11.2008</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -21714,12 +21749,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Viktoria Juel</t>
+          <t>Sofie Hoff</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1.48,59</t>
+          <t>1.48,76</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -21727,12 +21762,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>01.11.2008</t>
+          <t>14.06.2024</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -21749,25 +21784,25 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sofie Hoff</t>
+          <t>Camilla Dahle-Øfsti</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1.48,76</t>
+          <t>1.48,78</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>14.06.2024</t>
+          <t>07.07.2013</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -21784,20 +21819,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Camilla Dahle-Øfsti</t>
+          <t>Aurora Moen Wannebo</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1.48,78</t>
+          <t>1.49,27</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>07.07.2013</t>
+          <t>08.07.2012</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -21819,25 +21854,25 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Aurora Moen Wannebo</t>
+          <t>Othelie Annette Høie</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1.49,27</t>
+          <t>1.49,44</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>08.07.2012</t>
+          <t>13.04.2013</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -21854,25 +21889,25 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Othelie Annette Høie</t>
+          <t>Alexandra Contreras Jimenez</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1.49,44</t>
+          <t>1.50,14</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>13.04.2013</t>
+          <t>14.06.2024</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -21889,12 +21924,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Alexandra Contreras Jimenez</t>
+          <t>Magne Petersen</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1.50,14</t>
+          <t>1.37,61</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -21902,12 +21937,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>14.06.2024</t>
+          <t>07.07.2013</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -21924,25 +21959,25 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Magne Petersen</t>
+          <t>Michaela Josefin Abeleva Barrera</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1.37,61</t>
+          <t>1.50,42</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>07.07.2013</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -21959,20 +21994,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Michaela Josefin Abeleva Barrera</t>
+          <t>Hedda Østgaard</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1.50,42</t>
+          <t>1.52,32</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>11.06.2006</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -21994,7 +22029,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Hedda Østgaard</t>
+          <t>Kirsti Bjørnsdatter Paulsen</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -22007,7 +22042,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>11.06.2006</t>
+          <t>12.06.2015</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -22029,25 +22064,25 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Kirsti Bjørnsdatter Paulsen</t>
+          <t>Synnøve Fevang</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1.52,32</t>
+          <t>1.52,46</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>12.06.2015</t>
+          <t>29.04.2006</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -22064,25 +22099,25 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Synnøve Fevang</t>
+          <t>Madeleine Tran Wæraas</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1.52,46</t>
+          <t>1.54,77</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>29.04.2006</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -22099,25 +22134,25 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Madeleine Tran Wæraas</t>
+          <t>Hedda Fosseng Traa</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1.54,77</t>
+          <t>1.55,07</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>27.04.2014</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -22134,25 +22169,25 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Hedda Fosseng Traa</t>
+          <t>Sigrid Moen Henriksen</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1.55,07</t>
+          <t>1.55,34</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>27.04.2014</t>
+          <t>29.04.2022</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -22169,20 +22204,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sigrid Moen Henriksen</t>
+          <t>Elina Arefjord Spangelo</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1.55,34</t>
+          <t>1.56,23</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>29.04.2022</t>
+          <t>15.06.2025</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -22204,12 +22239,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Elina Arefjord Spangelo</t>
+          <t>Selma Strandjord Lillerødvann</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1.56,23</t>
+          <t>1.56,32</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -22217,12 +22252,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>15.06.2025</t>
+          <t>16.06.2024</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -22239,25 +22274,25 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Selma Strandjord Lillerødvann</t>
+          <t>Susanne Kolloen</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1.56,32</t>
+          <t>1.58,76</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>16.06.2024</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -22274,16 +22309,16 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Susanne Kolloen</t>
+          <t>Frida Pauline Busch</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1.58,76</t>
+          <t>1.58,99</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -22309,20 +22344,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Frida Pauline Busch</t>
+          <t>Silje Dahle</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1.58,99</t>
+          <t>2.02,95</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>12.06.2016</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -22344,25 +22379,25 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Silje Dahle</t>
+          <t>Sofie Havig</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2.02,95</t>
+          <t>2.04,13</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>12.06.2016</t>
+          <t>29.04.2006</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -22379,12 +22414,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sofie Havig</t>
+          <t>Aurora S. Juel</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2.04,13</t>
+          <t>2.04,40</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -22392,7 +22427,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>29.04.2006</t>
+          <t>09.04.2011</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -22414,25 +22449,25 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Aurora S. Juel</t>
+          <t>Åse Vigdisdatter Nytrø</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2.04,40</t>
+          <t>2.04,83</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>09.04.2011</t>
+          <t>08.01.2008</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -22449,25 +22484,25 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Åse Vigdisdatter Nytrø</t>
+          <t>Emilie Sandvik Gangåssæter</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2.04,83</t>
+          <t>2.06,82</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>08.01.2008</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -22484,25 +22519,25 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Emilie Sandvik Gangåssæter</t>
+          <t>Tora Tveiten</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2.06,82</t>
+          <t>2.08,72</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>26.04.2014</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -22519,25 +22554,25 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Tora Tveiten</t>
+          <t>Julia Tan</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2.08,72</t>
+          <t>2.08,98</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>26.04.2014</t>
+          <t>01.11.2008</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -22554,25 +22589,25 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Julia Tan</t>
+          <t>Marie Wærnes Blom</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2.08,98</t>
+          <t>2.15,67</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>01.11.2008</t>
+          <t>16.06.2024</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -22589,25 +22624,25 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Marie Wærnes Blom</t>
+          <t>Arne Martin Einarsrud Rismoen</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2.15,67</t>
+          <t>2.10,18</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>16.06.2024</t>
+          <t>16.06.2019</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -22616,41 +22651,6 @@
         </is>
       </c>
       <c r="G100" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Arne Martin Einarsrud Rismoen</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2.10,18</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>83</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>16.06.2019</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Hamar</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>50m</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
